--- a/com.sevenmart/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CB45DC-59F7-4CE6-A5DF-CFBD39533875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454735D-F5D7-4CCE-A50E-9E360DF89EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>gopi</t>
-  </si>
-  <si>
-    <t>hari</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Leena</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ertw</t>
+  </si>
+  <si>
+    <t>uytr</t>
   </si>
 </sst>
 </file>
@@ -352,28 +364,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>123456</v>
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>555544</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -385,18 +405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C213AA9-C612-47F0-AC18-DE28A7906A97}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/com.sevenmart/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454735D-F5D7-4CCE-A50E-9E360DF89EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD93DA44-97B6-4455-AC3A-BD076FC7DFAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Leena</t>
-  </si>
-  <si>
     <t>Anu</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>uytr</t>
+  </si>
+  <si>
+    <t>aju</t>
   </si>
 </sst>
 </file>
@@ -367,33 +367,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
